--- a/-114/T3A - RLC/T3A - Circuitos RLC.xlsx
+++ b/-114/T3A - RLC/T3A - Circuitos RLC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\2º Ano\2ºS\LABS\LABSFISICAII\-114\T3A - RLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D77603-4CE0-4F71-AD15-FB0D485286A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002C4F17-23A4-4341-86EA-F836A7BDFD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3659F482-0B07-407A-8A91-9F1A6577D275}"/>
   </bookViews>
@@ -512,8 +512,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -669,22 +669,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,14 +699,17 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1857,7 +1857,7 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="0\.000">
+                <c:pt idx="0" formatCode="0.000">
                   <c:v>0.35899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1869,31 +1869,31 @@
                 <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0\.0">
+                <c:pt idx="4" formatCode="0.0">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0\.0">
+                <c:pt idx="5" formatCode="0.0">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0\.0">
+                <c:pt idx="6" formatCode="0.0">
                   <c:v>22.5</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0\.0">
+                <c:pt idx="7" formatCode="0.0">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0\.0">
+                <c:pt idx="8" formatCode="0.0">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0\.0">
+                <c:pt idx="9" formatCode="0.0">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0\.0">
+                <c:pt idx="10" formatCode="0.0">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0\.0">
+                <c:pt idx="11" formatCode="0.0">
                   <c:v>88.6</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0\.0">
+                <c:pt idx="12" formatCode="0.0">
                   <c:v>90.1</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
@@ -2785,9 +2785,9 @@
             <c:numRef>
               <c:f>'Regime Permanente (R=RL)'!$H$5:$H$33</c:f>
               <c:numCache>
-                <c:formatCode>0\.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="29"/>
-                <c:pt idx="0" formatCode="0\.000">
+                <c:pt idx="0" formatCode="0.000">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3687,7 +3687,7 @@
             <c:numRef>
               <c:f>'Regime Permanente (R=RL)'!$F$5:$F$33</c:f>
               <c:numCache>
-                <c:formatCode>0\.000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3713,25 +3713,25 @@
                 <c:pt idx="7" formatCode="0.00">
                   <c:v>8.8699999999999992</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0\.0">
+                <c:pt idx="8" formatCode="0.0">
                   <c:v>14.5</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0\.0">
+                <c:pt idx="9" formatCode="0.0">
                   <c:v>28.5</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0\.0">
+                <c:pt idx="10" formatCode="0.0">
                   <c:v>35.6</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="0\.0">
+                <c:pt idx="11" formatCode="0.0">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="0\.0">
+                <c:pt idx="12" formatCode="0.0">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="0\.0">
+                <c:pt idx="13" formatCode="0.0">
                   <c:v>77.5</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="0\.0">
+                <c:pt idx="14" formatCode="0.0">
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
@@ -9164,7 +9164,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9174,780 +9174,780 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="H2" s="12" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="H2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>500</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>1.02</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>0.01</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>1.02</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>0.35899999999999999</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>1E-3</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <f>C5/E5</f>
         <v>1</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f>SQRT((D5/E5)^2+(C5*$I$2/E5^2))</f>
         <v>9.9498936912668826E-2</v>
       </c>
-      <c r="J5" s="24">
-        <f t="shared" ref="J5:J23" si="0">2*PI()*B5</f>
+      <c r="J5" s="23">
+        <f t="shared" ref="J5:J10" si="0">2*PI()*B5</f>
         <v>3141.5926535897929</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>1000</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>0.01</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>1.02</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>1.5</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>0.01</v>
       </c>
-      <c r="H6" s="25">
-        <f t="shared" ref="H6:H34" si="1">C6/E6</f>
+      <c r="H6" s="24">
+        <f t="shared" ref="H6:H10" si="1">C6/E6</f>
         <v>1.0882352941176472</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <f t="shared" ref="I6:I27" si="2">SQRT((D6/E6)^2+(C6*$I$2/E6^2))</f>
         <v>0.10375495337508199</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <f t="shared" si="0"/>
         <v>6283.1853071795858</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>1500</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>1.3</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>0.01</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>1.02</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>4.32</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>0.01</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <f t="shared" si="1"/>
         <v>1.2745098039215685</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <f t="shared" si="2"/>
         <v>0.11221101119862351</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <f t="shared" si="0"/>
         <v>9424.7779607693792</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>2000</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>1.76</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>0.01</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>1.02</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>7</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>0.01</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <f t="shared" si="1"/>
         <v>1.7254901960784315</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <f t="shared" si="2"/>
         <v>0.13043269309460853</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <f t="shared" si="0"/>
         <v>12566.370614359172</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>2500</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>2.74</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>0.01</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>1.02</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>15</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>0.1</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <f t="shared" si="1"/>
         <v>2.6862745098039218</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <f t="shared" si="2"/>
         <v>0.16257964658604904</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <f t="shared" si="0"/>
         <v>15707.963267948966</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>2600</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>3.2</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>0.01</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>1.02</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>18</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>0.1</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <f t="shared" si="1"/>
         <v>3.1372549019607843</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="24">
         <f t="shared" si="2"/>
         <v>0.17565169477616585</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="23">
         <f t="shared" si="0"/>
         <v>16336.281798666923</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>2700</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>3.76</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>0.01</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>1.02</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>22.5</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>0.1</v>
       </c>
-      <c r="H11" s="25">
-        <f>C11/E11</f>
+      <c r="H11" s="24">
+        <f t="shared" ref="H11:H27" si="3">C11/E11</f>
         <v>3.6862745098039214</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="24">
         <f t="shared" si="2"/>
         <v>0.19035772391125097</v>
       </c>
-      <c r="J11" s="24">
-        <f>2*PI()*B11</f>
+      <c r="J11" s="23">
+        <f t="shared" ref="J11:J27" si="4">2*PI()*B11</f>
         <v>16964.600329384884</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>2800</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>0.01</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>1.02</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>29</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>0.1</v>
       </c>
-      <c r="H12" s="25">
-        <f>C12/E12</f>
+      <c r="H12" s="24">
+        <f t="shared" si="3"/>
         <v>4.5098039215686274</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <f t="shared" si="2"/>
         <v>0.21049912307435184</v>
       </c>
-      <c r="J12" s="24">
-        <f>2*PI()*B12</f>
+      <c r="J12" s="23">
+        <f t="shared" si="4"/>
         <v>17592.91886010284</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>2900</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>5.76</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>0.01</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>1.02</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>41</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>0.1</v>
       </c>
-      <c r="H13" s="25">
-        <f>C13/E13</f>
+      <c r="H13" s="24">
+        <f t="shared" si="3"/>
         <v>5.6470588235294112</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="24">
         <f t="shared" si="2"/>
         <v>0.23549827744047674</v>
       </c>
-      <c r="J13" s="24">
-        <f>2*PI()*B13</f>
+      <c r="J13" s="23">
+        <f t="shared" si="4"/>
         <v>18221.237390820799</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>3000</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>7.2</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>0.01</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>1.02</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>59</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>0.1</v>
       </c>
-      <c r="H14" s="25">
-        <f>C14/E14</f>
+      <c r="H14" s="24">
+        <f t="shared" si="3"/>
         <v>7.0588235294117645</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="24">
         <f t="shared" si="2"/>
         <v>0.26324944278622653</v>
       </c>
-      <c r="J14" s="24">
-        <f>2*PI()*B14</f>
+      <c r="J14" s="23">
+        <f t="shared" si="4"/>
         <v>18849.555921538758</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>3100</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>8.1</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>0.01</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>1.02</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>85</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>0.1</v>
       </c>
-      <c r="H15" s="25">
-        <f>C15/E15</f>
+      <c r="H15" s="24">
+        <f t="shared" si="3"/>
         <v>7.9411764705882346</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="24">
         <f t="shared" si="2"/>
         <v>0.27919668364506162</v>
       </c>
-      <c r="J15" s="24">
-        <f>2*PI()*B15</f>
+      <c r="J15" s="23">
+        <f t="shared" si="4"/>
         <v>19477.874452256718</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>3114</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>8</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>0.01</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>1.02</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>88.6</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>0.1</v>
       </c>
-      <c r="H16" s="25">
-        <f>C16/E16</f>
+      <c r="H16" s="24">
+        <f t="shared" si="3"/>
         <v>7.8431372549019605</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="24">
         <f t="shared" si="2"/>
         <v>0.27747003329578246</v>
       </c>
-      <c r="J16" s="24">
-        <f>2*PI()*B16</f>
+      <c r="J16" s="23">
+        <f t="shared" si="4"/>
         <v>19565.83904655723</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>3117</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>8</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>0.01</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>1.02</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>90.1</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>0.1</v>
       </c>
-      <c r="H17" s="25">
-        <f>C17/E17</f>
+      <c r="H17" s="24">
+        <f t="shared" si="3"/>
         <v>7.8431372549019605</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <f t="shared" si="2"/>
         <v>0.27747003329578246</v>
       </c>
-      <c r="J17" s="24">
-        <f>2*PI()*B17</f>
+      <c r="J17" s="23">
+        <f t="shared" si="4"/>
         <v>19584.688602478771</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>3200</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>7.2</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>0.01</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>1.02</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <v>112</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>1</v>
       </c>
-      <c r="H18" s="25">
-        <f>C18/E18</f>
+      <c r="H18" s="24">
+        <f t="shared" si="3"/>
         <v>7.0588235294117645</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="24">
         <f t="shared" si="2"/>
         <v>0.26324944278622653</v>
       </c>
-      <c r="J18" s="24">
-        <f>2*PI()*B18</f>
+      <c r="J18" s="23">
+        <f t="shared" si="4"/>
         <v>20106.192982974677</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>3300</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>5.64</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>0.01</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>1.02</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>131</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>1</v>
       </c>
-      <c r="H19" s="25">
-        <f>C19/E19</f>
+      <c r="H19" s="24">
+        <f t="shared" si="3"/>
         <v>5.5294117647058822</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="24">
         <f t="shared" si="2"/>
         <v>0.23303655537264142</v>
       </c>
-      <c r="J19" s="24">
-        <f>2*PI()*B19</f>
+      <c r="J19" s="23">
+        <f t="shared" si="4"/>
         <v>20734.511513692636</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>3400</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>4.32</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>0.01</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>1.02</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>141</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>1</v>
       </c>
-      <c r="H20" s="25">
-        <f>C20/E20</f>
+      <c r="H20" s="24">
+        <f t="shared" si="3"/>
         <v>4.2352941176470589</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="24">
         <f t="shared" si="2"/>
         <v>0.20400639261455697</v>
       </c>
-      <c r="J20" s="24">
-        <f>2*PI()*B20</f>
+      <c r="J20" s="23">
+        <f t="shared" si="4"/>
         <v>21362.830044410592</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>3500</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>3.44</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <v>0.01</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>1.02</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>150</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>1</v>
       </c>
-      <c r="H21" s="25">
-        <f>C21/E21</f>
+      <c r="H21" s="24">
+        <f t="shared" si="3"/>
         <v>3.3725490196078431</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="24">
         <f t="shared" si="2"/>
         <v>0.18209976099026184</v>
       </c>
-      <c r="J21" s="24">
-        <f>2*PI()*B21</f>
+      <c r="J21" s="23">
+        <f t="shared" si="4"/>
         <v>21991.148575128551</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>3750</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>0.01</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>1.02</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>160</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>1</v>
       </c>
-      <c r="H22" s="25">
-        <f>C22/E22</f>
+      <c r="H22" s="24">
+        <f t="shared" si="3"/>
         <v>2.1568627450980395</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="24">
         <f t="shared" si="2"/>
         <v>0.14574577203253439</v>
       </c>
-      <c r="J22" s="24">
-        <f>2*PI()*B22</f>
+      <c r="J22" s="23">
+        <f t="shared" si="4"/>
         <v>23561.944901923449</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <v>4000</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>1.56</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>0.01</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>1.02</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>164</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <v>1</v>
       </c>
-      <c r="H23" s="25">
-        <f>C23/E23</f>
+      <c r="H23" s="24">
+        <f t="shared" si="3"/>
         <v>1.5294117647058825</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="24">
         <f t="shared" si="2"/>
         <v>0.12284278515825164</v>
       </c>
-      <c r="J23" s="24">
-        <f>2*PI()*B23</f>
+      <c r="J23" s="23">
+        <f t="shared" si="4"/>
         <v>25132.741228718343</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>4500</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>0.92</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>1E-3</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>1.02</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <v>170</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="20">
         <v>1</v>
       </c>
-      <c r="H24" s="22">
-        <f>C24/E24</f>
+      <c r="H24" s="21">
+        <f t="shared" si="3"/>
         <v>0.90196078431372551</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="21">
         <f t="shared" si="2"/>
         <v>9.4041022730352641E-2</v>
       </c>
-      <c r="J24" s="24">
-        <f>2*PI()*B24</f>
+      <c r="J24" s="23">
+        <f t="shared" si="4"/>
         <v>28274.333882308139</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>5000</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>0.64</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>1E-3</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>1.02</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <v>171</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="20">
         <v>1</v>
       </c>
-      <c r="H25" s="22">
-        <f>C25/E25</f>
+      <c r="H25" s="21">
+        <f t="shared" si="3"/>
         <v>0.62745098039215685</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="21">
         <f t="shared" si="2"/>
         <v>7.843749976066515E-2</v>
       </c>
-      <c r="J25" s="24">
-        <f>2*PI()*B25</f>
+      <c r="J25" s="23">
+        <f t="shared" si="4"/>
         <v>31415.926535897932</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>6000</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>0.374</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>1E-3</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>1.02</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>174</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="20">
         <v>1</v>
       </c>
-      <c r="H26" s="22">
-        <f>C26/E26</f>
+      <c r="H26" s="21">
+        <f t="shared" si="3"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="21">
         <f t="shared" si="2"/>
         <v>5.996442620930599E-2</v>
       </c>
-      <c r="J26" s="24">
-        <f>2*PI()*B26</f>
+      <c r="J26" s="23">
+        <f t="shared" si="4"/>
         <v>37699.111843077517</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>7000</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <v>0.25</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="20">
         <v>1E-3</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>1.02</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>176</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="20">
         <v>1</v>
       </c>
-      <c r="H27" s="22">
-        <f>C27/E27</f>
+      <c r="H27" s="21">
+        <f t="shared" si="3"/>
         <v>0.24509803921568626</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="21">
         <f t="shared" si="2"/>
         <v>4.9029410784509751E-2</v>
       </c>
-      <c r="J27" s="24">
-        <f>2*PI()*B27</f>
+      <c r="J27" s="23">
+        <f t="shared" si="4"/>
         <v>43982.297150257102</v>
       </c>
     </row>
@@ -9965,8 +9965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B1E1BC-22DB-486C-85B8-362BB2AF765B}">
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9976,42 +9976,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="H2" s="12" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="H2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="10" t="s">
@@ -10019,930 +10019,930 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>500</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>1.02</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.01</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>1.02</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>1E-3</v>
       </c>
-      <c r="H5" s="15">
-        <f>C5/E5</f>
+      <c r="H5" s="14">
+        <f t="shared" ref="H5:H33" si="0">C5/E5</f>
         <v>1</v>
       </c>
-      <c r="I5" s="17">
-        <f>SQRT((D5/E5)^2+(C5*$I$2/E5^2))</f>
+      <c r="I5" s="16">
+        <f t="shared" ref="I5:I33" si="1">SQRT((D5/E5)^2+(C5*$I$2/E5^2))</f>
         <v>9.9498936912668826E-2</v>
       </c>
-      <c r="J5" s="18">
-        <f>2*PI()*B5</f>
+      <c r="J5" s="17">
+        <f t="shared" ref="J5:J33" si="2">2*PI()*B5</f>
         <v>3141.5926535897929</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>1000</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>1.1200000000000001</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.01</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>1.02</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>0.72</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>1E-3</v>
       </c>
-      <c r="H6" s="17">
-        <f>C6/E6</f>
+      <c r="H6" s="16">
+        <f t="shared" si="0"/>
         <v>1.0980392156862746</v>
       </c>
-      <c r="I6" s="17">
-        <f>SQRT((D6/E6)^2+(C6*$I$2/E6^2))</f>
+      <c r="I6" s="16">
+        <f t="shared" si="1"/>
         <v>0.10421711581112401</v>
       </c>
-      <c r="J6" s="18">
-        <f>2*PI()*B6</f>
+      <c r="J6" s="17">
+        <f t="shared" si="2"/>
         <v>6283.1853071795858</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>1500</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>1.34</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>0.01</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>1.02</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>0.01</v>
       </c>
-      <c r="H7" s="17">
-        <f>C7/E7</f>
+      <c r="H7" s="16">
+        <f t="shared" si="0"/>
         <v>1.3137254901960784</v>
       </c>
-      <c r="I7" s="17">
-        <f>SQRT((D7/E7)^2+(C7*$I$2/E7^2))</f>
+      <c r="I7" s="16">
+        <f t="shared" si="1"/>
         <v>0.11391127488845343</v>
       </c>
-      <c r="J7" s="18">
-        <f>2*PI()*B7</f>
+      <c r="J7" s="17">
+        <f t="shared" si="2"/>
         <v>9424.7779607693792</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>2000</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>1.74</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>0.01</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>1.02</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>2.16</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>0.01</v>
       </c>
-      <c r="H8" s="17">
-        <f>C8/E8</f>
+      <c r="H8" s="16">
+        <f t="shared" si="0"/>
         <v>1.7058823529411764</v>
       </c>
-      <c r="I8" s="17">
-        <f>SQRT((D8/E8)^2+(C8*$I$2/E8^2))</f>
+      <c r="I8" s="16">
+        <f t="shared" si="1"/>
         <v>0.12969369171885248</v>
       </c>
-      <c r="J8" s="18">
-        <f>2*PI()*B8</f>
+      <c r="J8" s="17">
+        <f t="shared" si="2"/>
         <v>12566.370614359172</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>2500</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>2.84</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>0.01</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>1.02</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>4.5</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>0.01</v>
       </c>
-      <c r="H9" s="17">
-        <f>C9/E9</f>
+      <c r="H9" s="16">
+        <f t="shared" si="0"/>
         <v>2.784313725490196</v>
       </c>
-      <c r="I9" s="17">
-        <f>SQRT((D9/E9)^2+(C9*$I$2/E9^2))</f>
+      <c r="I9" s="16">
+        <f t="shared" si="1"/>
         <v>0.16550924525621699</v>
       </c>
-      <c r="J9" s="18">
-        <f>2*PI()*B9</f>
+      <c r="J9" s="17">
+        <f t="shared" si="2"/>
         <v>15707.963267948966</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>2600</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>3.34</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>0.01</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>1.02</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>6</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>0.01</v>
       </c>
-      <c r="H10" s="17">
-        <f>C10/E10</f>
+      <c r="H10" s="16">
+        <f t="shared" si="0"/>
         <v>3.2745098039215685</v>
       </c>
-      <c r="I10" s="17">
-        <f>SQRT((D10/E10)^2+(C10*$I$2/E10^2))</f>
+      <c r="I10" s="16">
+        <f t="shared" si="1"/>
         <v>0.17944122762473655</v>
       </c>
-      <c r="J10" s="18">
-        <f>2*PI()*B10</f>
+      <c r="J10" s="17">
+        <f t="shared" si="2"/>
         <v>16336.281798666923</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>2700</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>4.12</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>0.01</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>1.02</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>7</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>0.01</v>
       </c>
-      <c r="H11" s="17">
-        <f>C11/E11</f>
+      <c r="H11" s="16">
+        <f t="shared" si="0"/>
         <v>4.0392156862745097</v>
       </c>
-      <c r="I11" s="17">
-        <f>SQRT((D11/E11)^2+(C11*$I$2/E11^2))</f>
+      <c r="I11" s="16">
+        <f t="shared" si="1"/>
         <v>0.19923922973432917</v>
       </c>
-      <c r="J11" s="18">
-        <f>2*PI()*B11</f>
+      <c r="J11" s="17">
+        <f t="shared" si="2"/>
         <v>16964.600329384884</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>2800</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>5.24</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0.01</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>1.02</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>8.8699999999999992</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>0.01</v>
       </c>
-      <c r="H12" s="17">
-        <f>C12/E12</f>
+      <c r="H12" s="16">
+        <f t="shared" si="0"/>
         <v>5.1372549019607847</v>
       </c>
-      <c r="I12" s="17">
-        <f>SQRT((D12/E12)^2+(C12*$I$2/E12^2))</f>
+      <c r="I12" s="16">
+        <f t="shared" si="1"/>
         <v>0.22463606347822745</v>
       </c>
-      <c r="J12" s="18">
-        <f>2*PI()*B12</f>
+      <c r="J12" s="17">
+        <f t="shared" si="2"/>
         <v>17592.91886010284</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>2900</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>7.36</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>0.01</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>1.02</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>14.5</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>0.1</v>
       </c>
-      <c r="H13" s="17">
-        <f>C13/E13</f>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
         <v>7.215686274509804</v>
       </c>
-      <c r="I13" s="17">
-        <f>SQRT((D13/E13)^2+(C13*$I$2/E13^2))</f>
+      <c r="I13" s="16">
+        <f t="shared" si="1"/>
         <v>0.26615435216663191</v>
       </c>
-      <c r="J13" s="18">
-        <f>2*PI()*B13</f>
+      <c r="J13" s="17">
+        <f t="shared" si="2"/>
         <v>18221.237390820799</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>3000</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>12.3</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>0.1</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>1.02</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>28.5</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>0.1</v>
       </c>
-      <c r="H14" s="17">
-        <f>C14/E14</f>
+      <c r="H14" s="16">
+        <f t="shared" si="0"/>
         <v>12.058823529411764</v>
       </c>
-      <c r="I14" s="17">
-        <f>SQRT((D14/E14)^2+(C14*$I$2/E14^2))</f>
+      <c r="I14" s="16">
+        <f t="shared" si="1"/>
         <v>0.35754083389824448</v>
       </c>
-      <c r="J14" s="18">
-        <f>2*PI()*B14</f>
+      <c r="J14" s="17">
+        <f t="shared" si="2"/>
         <v>18849.555921538758</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>3025</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>15.2</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>0.1</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>1.02</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>35.6</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>0.1</v>
       </c>
-      <c r="H15" s="17">
-        <f>C15/E15</f>
+      <c r="H15" s="16">
+        <f t="shared" si="0"/>
         <v>14.901960784313724</v>
       </c>
-      <c r="I15" s="17">
-        <f>SQRT((D15/E15)^2+(C15*$I$2/E15^2))</f>
+      <c r="I15" s="16">
+        <f t="shared" si="1"/>
         <v>0.39460023132349231</v>
       </c>
-      <c r="J15" s="18">
-        <f>2*PI()*B15</f>
+      <c r="J15" s="17">
+        <f t="shared" si="2"/>
         <v>19006.63555421825</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>3050</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>18.399999999999999</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>0.1</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>1.02</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>44</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>0.1</v>
       </c>
-      <c r="H16" s="17">
-        <f>C16/E16</f>
+      <c r="H16" s="16">
+        <f t="shared" si="0"/>
         <v>18.03921568627451</v>
       </c>
-      <c r="I16" s="17">
-        <f>SQRT((D16/E16)^2+(C16*$I$2/E16^2))</f>
+      <c r="I16" s="16">
+        <f t="shared" si="1"/>
         <v>0.43181795187343608</v>
       </c>
-      <c r="J16" s="18">
-        <f>2*PI()*B16</f>
+      <c r="J16" s="17">
+        <f t="shared" si="2"/>
         <v>19163.715186897738</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>3075</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>22</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>0.1</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>1.02</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <v>57</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>0.1</v>
       </c>
-      <c r="H17" s="17">
-        <f>C17/E17</f>
+      <c r="H17" s="16">
+        <f t="shared" si="0"/>
         <v>21.56862745098039</v>
       </c>
-      <c r="I17" s="17">
-        <f>SQRT((D17/E17)^2+(C17*$I$2/E17^2))</f>
+      <c r="I17" s="16">
+        <f t="shared" si="1"/>
         <v>0.47017956110909015</v>
       </c>
-      <c r="J17" s="18">
-        <f>2*PI()*B17</f>
+      <c r="J17" s="17">
+        <f t="shared" si="2"/>
         <v>19320.794819577226</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>3100</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>25.2</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>0.1</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>1.02</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>77.5</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>0.1</v>
       </c>
-      <c r="H18" s="17">
-        <f>C18/E18</f>
+      <c r="H18" s="16">
+        <f t="shared" si="0"/>
         <v>24.705882352941174</v>
       </c>
-      <c r="I18" s="17">
-        <f>SQRT((D18/E18)^2+(C18*$I$2/E18^2))</f>
+      <c r="I18" s="16">
+        <f t="shared" si="1"/>
         <v>0.50182289772822464</v>
       </c>
-      <c r="J18" s="18">
-        <f>2*PI()*B18</f>
+      <c r="J18" s="17">
+        <f t="shared" si="2"/>
         <v>19477.874452256718</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>3114</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>25.8</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>0.1</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>1.02</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>90</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>0.1</v>
       </c>
-      <c r="H19" s="17">
-        <f>C19/E19</f>
+      <c r="H19" s="16">
+        <f t="shared" si="0"/>
         <v>25.294117647058822</v>
       </c>
-      <c r="I19" s="17">
-        <f>SQRT((D19/E19)^2+(C19*$I$2/E19^2))</f>
+      <c r="I19" s="16">
+        <f t="shared" si="1"/>
         <v>0.50753643551156014</v>
       </c>
-      <c r="J19" s="18">
-        <f>2*PI()*B19</f>
+      <c r="J19" s="17">
+        <f t="shared" si="2"/>
         <v>19565.83904655723</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>3125</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>25</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>0.1</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>1.02</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>100</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>1</v>
       </c>
-      <c r="H20" s="17">
-        <f>C20/E20</f>
+      <c r="H20" s="16">
+        <f t="shared" si="0"/>
         <v>24.509803921568626</v>
       </c>
-      <c r="I20" s="17">
-        <f>SQRT((D20/E20)^2+(C20*$I$2/E20^2))</f>
+      <c r="I20" s="16">
+        <f t="shared" si="1"/>
         <v>0.49990387388164559</v>
       </c>
-      <c r="J20" s="18">
-        <f>2*PI()*B20</f>
+      <c r="J20" s="17">
+        <f t="shared" si="2"/>
         <v>19634.954084936206</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>3150</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>21.8</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>0.1</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>1.02</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>120</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>1</v>
       </c>
-      <c r="H21" s="17">
-        <f>C21/E21</f>
+      <c r="H21" s="16">
+        <f t="shared" si="0"/>
         <v>21.372549019607842</v>
       </c>
-      <c r="I21" s="17">
-        <f>SQRT((D21/E21)^2+(C21*$I$2/E21^2))</f>
+      <c r="I21" s="16">
+        <f t="shared" si="1"/>
         <v>0.46813083867895383</v>
       </c>
-      <c r="J21" s="18">
-        <f>2*PI()*B21</f>
+      <c r="J21" s="17">
+        <f t="shared" si="2"/>
         <v>19792.033717615697</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>3175</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>17.8</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>0.1</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>1.02</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <v>133</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>1</v>
       </c>
-      <c r="H22" s="17">
-        <f>C22/E22</f>
+      <c r="H22" s="16">
+        <f t="shared" si="0"/>
         <v>17.450980392156865</v>
       </c>
-      <c r="I22" s="17">
-        <f>SQRT((D22/E22)^2+(C22*$I$2/E22^2))</f>
+      <c r="I22" s="16">
+        <f t="shared" si="1"/>
         <v>0.42508790958193732</v>
       </c>
-      <c r="J22" s="18">
-        <f>2*PI()*B22</f>
+      <c r="J22" s="17">
+        <f t="shared" si="2"/>
         <v>19949.113350295185</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>3200</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>14.8</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>0.1</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>1.02</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <v>142</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>1</v>
       </c>
-      <c r="H23" s="17">
-        <f>C23/E23</f>
+      <c r="H23" s="16">
+        <f t="shared" si="0"/>
         <v>14.509803921568627</v>
       </c>
-      <c r="I23" s="17">
-        <f>SQRT((D23/E23)^2+(C23*$I$2/E23^2))</f>
+      <c r="I23" s="16">
+        <f t="shared" si="1"/>
         <v>0.3896981747912116</v>
       </c>
-      <c r="J23" s="18">
-        <f>2*PI()*B23</f>
+      <c r="J23" s="17">
+        <f t="shared" si="2"/>
         <v>20106.192982974677</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>3250</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>10</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>0.1</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>1.02</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <v>153</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>1</v>
       </c>
-      <c r="H24" s="17">
-        <f>C24/E24</f>
+      <c r="H24" s="16">
+        <f t="shared" si="0"/>
         <v>9.8039215686274517</v>
       </c>
-      <c r="I24" s="17">
-        <f>SQRT((D24/E24)^2+(C24*$I$2/E24^2))</f>
+      <c r="I24" s="16">
+        <f t="shared" si="1"/>
         <v>0.32515929317209802</v>
       </c>
-      <c r="J24" s="18">
-        <f>2*PI()*B24</f>
+      <c r="J24" s="17">
+        <f t="shared" si="2"/>
         <v>20420.352248333656</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>3300</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>7.84</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>0.01</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>1.02</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <v>160</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>1</v>
       </c>
-      <c r="H25" s="17">
-        <f>C25/E25</f>
+      <c r="H25" s="16">
+        <f t="shared" si="0"/>
         <v>7.6862745098039209</v>
       </c>
-      <c r="I25" s="17">
-        <f>SQRT((D25/E25)^2+(C25*$I$2/E25^2))</f>
+      <c r="I25" s="16">
+        <f t="shared" si="1"/>
         <v>0.27468481815925294</v>
       </c>
-      <c r="J25" s="18">
-        <f>2*PI()*B25</f>
+      <c r="J25" s="17">
+        <f t="shared" si="2"/>
         <v>20734.511513692636</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>3400</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>5.28</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>0.01</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>1.02</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <v>165</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>1</v>
       </c>
-      <c r="H26" s="17">
-        <f>C26/E26</f>
+      <c r="H26" s="16">
+        <f t="shared" si="0"/>
         <v>5.1764705882352944</v>
       </c>
-      <c r="I26" s="17">
-        <f>SQRT((D26/E26)^2+(C26*$I$2/E26^2))</f>
+      <c r="I26" s="16">
+        <f t="shared" si="1"/>
         <v>0.22549019607843138</v>
       </c>
-      <c r="J26" s="18">
-        <f>2*PI()*B26</f>
+      <c r="J26" s="17">
+        <f t="shared" si="2"/>
         <v>21362.830044410592</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>3500</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <v>3.8</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>0.01</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>1.02</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <v>169</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="13">
         <v>1</v>
       </c>
-      <c r="H27" s="17">
-        <f>C27/E27</f>
+      <c r="H27" s="16">
+        <f t="shared" si="0"/>
         <v>3.725490196078431</v>
       </c>
-      <c r="I27" s="17">
-        <f>SQRT((D27/E27)^2+(C27*$I$2/E27^2))</f>
+      <c r="I27" s="16">
+        <f t="shared" si="1"/>
         <v>0.19136491466610916</v>
       </c>
-      <c r="J27" s="18">
-        <f>2*PI()*B27</f>
+      <c r="J27" s="17">
+        <f t="shared" si="2"/>
         <v>21991.148575128551</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>3750</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>0.01</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>1.02</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="13">
         <v>173</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>1</v>
       </c>
-      <c r="H28" s="17">
-        <f>C28/E28</f>
+      <c r="H28" s="16">
+        <f t="shared" si="0"/>
         <v>2.2156862745098036</v>
       </c>
-      <c r="I28" s="17">
-        <f>SQRT((D28/E28)^2+(C28*$I$2/E28^2))</f>
+      <c r="I28" s="16">
+        <f t="shared" si="1"/>
         <v>0.14771097228744473</v>
       </c>
-      <c r="J28" s="18">
-        <f>2*PI()*B28</f>
+      <c r="J28" s="17">
+        <f t="shared" si="2"/>
         <v>23561.944901923449</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>4000</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>1.58</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>0.01</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>1.02</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="13">
         <v>174</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>1</v>
       </c>
-      <c r="H29" s="17">
-        <f>C29/E29</f>
+      <c r="H29" s="16">
+        <f t="shared" si="0"/>
         <v>1.5490196078431373</v>
       </c>
-      <c r="I29" s="17">
-        <f>SQRT((D29/E29)^2+(C29*$I$2/E29^2))</f>
+      <c r="I29" s="16">
+        <f t="shared" si="1"/>
         <v>0.12362274718547542</v>
       </c>
-      <c r="J29" s="18">
-        <f>2*PI()*B29</f>
+      <c r="J29" s="17">
+        <f t="shared" si="2"/>
         <v>25132.741228718343</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>5000</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <v>0.64</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>1E-3</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>1.02</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="13">
         <v>176</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>1</v>
       </c>
-      <c r="H30" s="16">
-        <f>C30/E30</f>
+      <c r="H30" s="15">
+        <f t="shared" si="0"/>
         <v>0.62745098039215685</v>
       </c>
-      <c r="I30" s="16">
-        <f>SQRT((D30/E30)^2+(C30*$I$2/E30^2))</f>
+      <c r="I30" s="15">
+        <f t="shared" si="1"/>
         <v>7.843749976066515E-2</v>
       </c>
-      <c r="J30" s="18">
-        <f>2*PI()*B30</f>
+      <c r="J30" s="17">
+        <f t="shared" si="2"/>
         <v>31415.926535897932</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>4500</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>0.93600000000000005</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>1E-3</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>1.02</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <v>175</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="13">
         <v>1</v>
       </c>
-      <c r="H31" s="16">
-        <f>C31/E31</f>
+      <c r="H31" s="15">
+        <f t="shared" si="0"/>
         <v>0.91764705882352948</v>
       </c>
-      <c r="I31" s="16">
-        <f>SQRT((D31/E31)^2+(C31*$I$2/E31^2))</f>
+      <c r="I31" s="15">
+        <f t="shared" si="1"/>
         <v>9.4855157799503875E-2</v>
       </c>
-      <c r="J31" s="18">
-        <f>2*PI()*B31</f>
+      <c r="J31" s="17">
+        <f t="shared" si="2"/>
         <v>28274.333882308139</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>6000</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="14">
         <v>0.376</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>1E-3</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>1.02</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <v>175</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <v>1</v>
       </c>
-      <c r="H32" s="16">
-        <f>C32/E32</f>
+      <c r="H32" s="15">
+        <f t="shared" si="0"/>
         <v>0.36862745098039212</v>
       </c>
-      <c r="I32" s="16">
-        <f>SQRT((D32/E32)^2+(C32*$I$2/E32^2))</f>
+      <c r="I32" s="15">
+        <f t="shared" si="1"/>
         <v>6.0124502378282207E-2</v>
       </c>
-      <c r="J32" s="18">
-        <f>2*PI()*B32</f>
+      <c r="J32" s="17">
+        <f t="shared" si="2"/>
         <v>37699.111843077517</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <v>7000</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>0.25</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <v>1E-3</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <v>1.02</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="13">
         <v>177</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <v>1</v>
       </c>
-      <c r="H33" s="16">
-        <f>C33/E33</f>
+      <c r="H33" s="15">
+        <f t="shared" si="0"/>
         <v>0.24509803921568626</v>
       </c>
-      <c r="I33" s="16">
-        <f>SQRT((D33/E33)^2+(C33*$I$2/E33^2))</f>
+      <c r="I33" s="15">
+        <f t="shared" si="1"/>
         <v>4.9029410784509751E-2</v>
       </c>
-      <c r="J33" s="18">
-        <f>2*PI()*B33</f>
+      <c r="J33" s="17">
+        <f t="shared" si="2"/>
         <v>43982.297150257102</v>
       </c>
     </row>
